--- a/HomeUtilities_Apr23.xlsx
+++ b/HomeUtilities_Apr23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARE\Common\Downloads\HOUSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839C2F9-4F5A-4B9D-81AC-0750F868CC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829377E7-A418-41F7-BEF1-E2F36722517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="243" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
   <si>
     <t>House Utilities</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>4/8-4/18</t>
+  </si>
+  <si>
+    <t>Vish(Mar 12 -Apr 12)</t>
   </si>
 </sst>
 </file>
@@ -545,48 +548,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,6 +597,48 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,13 +662,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -720,7 +723,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -776,13 +779,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -837,7 +840,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1215,9 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2879B5A9-5C85-4D9B-8A7A-5CAD9B7063ED}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1233,67 +1238,73 @@
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="33" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="33" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="28" t="s">
         <v>5</v>
       </c>
@@ -1330,174 +1341,198 @@
       <c r="P4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="30"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="14">
         <v>30</v>
       </c>
-      <c r="C5" s="47">
-        <f>H5+J5+L5+N5+P5+F5</f>
-        <v>117</v>
-      </c>
-      <c r="D5" s="49">
+      <c r="C5" s="33">
+        <f>H5+J5+L5+P5+R5+F5+N5</f>
+        <v>134</v>
+      </c>
+      <c r="D5" s="35">
         <v>584.82000000000005</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ref="E5" si="0">($D5/$C5)*F5</f>
-        <v>64.98</v>
-      </c>
-      <c r="F5" s="50">
+        <v>56.736268656716419</v>
+      </c>
+      <c r="F5" s="36">
         <v>13</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" ref="G5" si="1">($D5/$C5)*H5</f>
-        <v>29.990769230769235</v>
-      </c>
-      <c r="H5" s="50">
+        <v>26.185970149253734</v>
+      </c>
+      <c r="H5" s="36">
         <v>6</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" ref="I5" si="2">($D5/$C5)*J5</f>
-        <v>104.96769230769232</v>
-      </c>
-      <c r="J5" s="50">
+        <v>91.650895522388069</v>
+      </c>
+      <c r="J5" s="36">
         <v>21</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" ref="K5" si="3">($D5/$C5)*L5</f>
-        <v>84.973846153846168</v>
-      </c>
-      <c r="L5" s="50">
+        <v>74.193582089552237</v>
+      </c>
+      <c r="L5" s="36">
         <v>17</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="M5:O6" si="4">($D5/$C5)*N5</f>
-        <v>149.95384615384617</v>
-      </c>
-      <c r="N5" s="50">
+        <f t="shared" ref="M5:M6" si="4">($D5/$C5)*N5</f>
+        <v>74.193582089552237</v>
+      </c>
+      <c r="N5" s="36">
+        <v>17</v>
+      </c>
+      <c r="O5" s="17">
+        <f t="shared" ref="O5:Q6" si="5">($D5/$C5)*P5</f>
+        <v>130.92985074626867</v>
+      </c>
+      <c r="P5" s="36">
         <v>30</v>
       </c>
-      <c r="O5" s="17">
-        <f t="shared" si="4"/>
-        <v>149.95384615384617</v>
-      </c>
-      <c r="P5" s="50">
+      <c r="Q5" s="17">
+        <f t="shared" si="5"/>
+        <v>130.92985074626867</v>
+      </c>
+      <c r="R5" s="36">
         <v>30</v>
       </c>
-      <c r="Q5" s="15">
-        <f>K5+G5+M5+O5+I5+E5</f>
+      <c r="S5" s="15">
+        <f>K5+G5+O5+Q5+I5+E5+M5</f>
         <v>584.82000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="14">
         <v>31</v>
       </c>
-      <c r="C6" s="47">
-        <f>H6+J6+L6+N6+P6+F6</f>
-        <v>124</v>
-      </c>
-      <c r="D6" s="49">
+      <c r="C6" s="33">
+        <f>H6+J6+L6+P6+R6+F6+N6</f>
+        <v>137</v>
+      </c>
+      <c r="D6" s="35">
         <v>569.49</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="17">
-        <f t="shared" ref="G6" si="5">($D6/$C6)*H6</f>
-        <v>142.3725</v>
-      </c>
-      <c r="H6" s="50">
+        <f t="shared" ref="G6" si="6">($D6/$C6)*H6</f>
+        <v>128.86270072992701</v>
+      </c>
+      <c r="H6" s="36">
         <v>31</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="50">
+      <c r="J6" s="36">
         <v>0</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" ref="K6" si="6">($D6/$C6)*L6</f>
-        <v>142.3725</v>
-      </c>
-      <c r="L6" s="50">
+        <f t="shared" ref="K6" si="7">($D6/$C6)*L6</f>
+        <v>128.86270072992701</v>
+      </c>
+      <c r="L6" s="36">
         <v>31</v>
       </c>
       <c r="M6" s="17">
         <f t="shared" si="4"/>
-        <v>142.3725</v>
-      </c>
-      <c r="N6" s="50">
+        <v>54.03919708029197</v>
+      </c>
+      <c r="N6" s="36">
+        <v>13</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="5"/>
+        <v>128.86270072992701</v>
+      </c>
+      <c r="P6" s="36">
         <v>31</v>
       </c>
-      <c r="O6" s="17">
-        <f t="shared" si="4"/>
-        <v>142.3725</v>
-      </c>
-      <c r="P6" s="50">
+      <c r="Q6" s="17">
+        <f t="shared" si="5"/>
+        <v>128.86270072992701</v>
+      </c>
+      <c r="R6" s="36">
         <v>31</v>
       </c>
-      <c r="Q6" s="15">
-        <f>K6+G6+M6+O6+I6+E6</f>
+      <c r="S6" s="15">
+        <f>K6+G6+O6+Q6+I6+E6+M6</f>
         <v>569.49</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="48"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="17">
         <f>G7</f>
-        <v>41.333951612903228</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+        <v>37.411751824817514</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="17">
         <f>($D6/$C6)*H7</f>
-        <v>41.333951612903228</v>
-      </c>
-      <c r="H7" s="50">
+        <v>37.411751824817514</v>
+      </c>
+      <c r="H7" s="36">
         <v>9</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="17">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="17">
         <f>G7</f>
-        <v>41.333951612903228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37.411751824817514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="50"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="50"/>
+      <c r="N8" s="36"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="36"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1505,267 +1540,295 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22">
         <f>SUM(D5:D8)</f>
-        <v>1195.6439516129033</v>
+        <v>1191.7217518248174</v>
       </c>
       <c r="E9" s="22">
         <f>SUM(E5:E8)</f>
-        <v>64.98</v>
+        <v>56.736268656716419</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22">
         <f>SUM(G5:G8)</f>
-        <v>213.69722084367248</v>
-      </c>
-      <c r="H9" s="52"/>
+        <v>192.46042270399826</v>
+      </c>
+      <c r="H9" s="38"/>
       <c r="I9" s="22">
         <f>SUM(I5:I8)</f>
-        <v>104.96769230769232</v>
-      </c>
-      <c r="J9" s="52"/>
+        <v>91.650895522388069</v>
+      </c>
+      <c r="J9" s="38"/>
       <c r="K9" s="22">
         <f>SUM(K5:K8)</f>
-        <v>227.34634615384618</v>
-      </c>
-      <c r="L9" s="52"/>
+        <v>203.05628281947924</v>
+      </c>
+      <c r="L9" s="38"/>
       <c r="M9" s="22">
         <f>SUM(M5:M8)</f>
-        <v>292.3263461538462</v>
-      </c>
-      <c r="N9" s="52"/>
+        <v>128.23277916984421</v>
+      </c>
+      <c r="N9" s="38"/>
       <c r="O9" s="22">
         <f>SUM(O5:O8)</f>
-        <v>292.3263461538462</v>
-      </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="15">
-        <f>K9+G9+M9+O9+I9+E9</f>
-        <v>1195.6439516129035</v>
-      </c>
-      <c r="R9" s="13">
+        <v>259.79255147619568</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="22">
         <f>SUM(Q5:Q8)</f>
-        <v>1195.6439516129033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>259.79255147619568</v>
+      </c>
+      <c r="R9" s="38"/>
+      <c r="S9" s="15">
+        <f>K9+G9+O9+Q9+I9+E9+M9</f>
+        <v>1191.7217518248176</v>
+      </c>
+      <c r="T9" s="13">
+        <f>SUM(S5:S8)</f>
+        <v>1191.7217518248174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="53"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="53"/>
+      <c r="N10" s="39"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="39"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="R10" s="39"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="35" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="54"/>
+      <c r="M11" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="33" t="s">
+      <c r="P11" s="56"/>
+      <c r="Q11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="56"/>
+      <c r="S11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="56"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="14">
         <v>60</v>
       </c>
-      <c r="C13" s="47">
-        <f>H13+J13+L13+N13+P13+F13</f>
-        <v>239</v>
-      </c>
-      <c r="D13" s="49">
+      <c r="C13" s="33">
+        <f>H13+J13+L13+P13+R13+F13+N13</f>
+        <v>269</v>
+      </c>
+      <c r="D13" s="35">
         <v>152.59</v>
       </c>
       <c r="E13" s="17">
         <f>($D13/$C13)*F13</f>
-        <v>10.215230125523012</v>
-      </c>
-      <c r="F13" s="50">
+        <v>9.0759851301115244</v>
+      </c>
+      <c r="F13" s="36">
         <v>16</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" ref="G13:I13" si="7">($D13/$C13)*H13</f>
-        <v>22.345815899581591</v>
-      </c>
-      <c r="H13" s="50">
+        <f t="shared" ref="G13:I13" si="8">($D13/$C13)*H13</f>
+        <v>19.853717472118959</v>
+      </c>
+      <c r="H13" s="36">
         <v>35</v>
       </c>
       <c r="I13" s="17">
-        <f t="shared" si="7"/>
-        <v>14.045941422594142</v>
-      </c>
-      <c r="J13" s="50">
+        <f t="shared" si="8"/>
+        <v>12.479479553903346</v>
+      </c>
+      <c r="J13" s="36">
         <v>22</v>
       </c>
       <c r="K13" s="17">
         <f>($D13/$C13)*L13</f>
-        <v>29.368786610878661</v>
-      </c>
-      <c r="L13" s="50">
+        <v>26.093457249070632</v>
+      </c>
+      <c r="L13" s="36">
         <v>46</v>
       </c>
       <c r="M13" s="17">
         <f>($D13/$C13)*N13</f>
-        <v>38.307112970711295</v>
-      </c>
-      <c r="N13" s="50">
-        <v>60</v>
+        <v>17.017472118959109</v>
+      </c>
+      <c r="N13" s="36">
+        <v>30</v>
       </c>
       <c r="O13" s="17">
         <f>($D13/$C13)*P13</f>
-        <v>38.307112970711295</v>
-      </c>
-      <c r="P13" s="50">
+        <v>34.034944237918218</v>
+      </c>
+      <c r="P13" s="36">
         <v>60</v>
       </c>
-      <c r="Q13" s="15">
-        <f t="shared" ref="Q13" si="8">K13+G13+M13+O13+I13+E13</f>
+      <c r="Q13" s="17">
+        <f>($D13/$C13)*R13</f>
+        <v>34.034944237918218</v>
+      </c>
+      <c r="R13" s="36">
+        <v>60</v>
+      </c>
+      <c r="S13" s="15">
+        <f>K13+G13+O13+Q13+I13+E13+M13</f>
         <v>152.59000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="49">
+      <c r="C14" s="33"/>
+      <c r="D14" s="35">
         <f>G14</f>
-        <v>7.022970711297071</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+        <v>6.2397397769516729</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="17">
         <f>($D13/$C13)*H14</f>
-        <v>7.022970711297071</v>
-      </c>
-      <c r="H14" s="50">
+        <v>6.2397397769516729</v>
+      </c>
+      <c r="H14" s="36">
         <v>11</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="50"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="50"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="15">
-        <f>D14</f>
-        <v>7.022970711297071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="15">
+        <f>K14+G14+O14+Q14+I14+E14+M14</f>
+        <v>6.2397397769516729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="47">
-        <f>H15+J15+L15+N15+P15</f>
+      <c r="C15" s="33">
+        <f>H15+J15+L15+P15+R15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="50"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="50"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="36"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
@@ -1773,279 +1836,312 @@
       <c r="C16" s="24"/>
       <c r="D16" s="25">
         <f>SUM(D13:D15)</f>
-        <v>159.61297071129707</v>
+        <v>158.82973977695167</v>
       </c>
       <c r="E16" s="22">
         <f>SUM(E12:E15)</f>
-        <v>10.215230125523012</v>
+        <v>9.0759851301115244</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25">
         <f>SUM(G13:G15)</f>
-        <v>29.368786610878661</v>
-      </c>
-      <c r="H16" s="57"/>
+        <v>26.093457249070632</v>
+      </c>
+      <c r="H16" s="43"/>
       <c r="I16" s="25">
         <f>SUM(I12:I15)</f>
-        <v>14.045941422594142</v>
-      </c>
-      <c r="J16" s="57"/>
+        <v>12.479479553903346</v>
+      </c>
+      <c r="J16" s="43"/>
       <c r="K16" s="25">
         <f>SUM(K13:K15)</f>
-        <v>29.368786610878661</v>
-      </c>
-      <c r="L16" s="57"/>
+        <v>26.093457249070632</v>
+      </c>
+      <c r="L16" s="43"/>
       <c r="M16" s="25">
         <f>SUM(M13:M15)</f>
-        <v>38.307112970711295</v>
-      </c>
-      <c r="N16" s="57"/>
+        <v>17.017472118959109</v>
+      </c>
+      <c r="N16" s="43"/>
       <c r="O16" s="25">
         <f>SUM(O13:O15)</f>
-        <v>38.307112970711295</v>
-      </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="15">
-        <f>K16+G16+M16+O16+I16+E16</f>
-        <v>159.61297071129709</v>
-      </c>
-      <c r="R16" s="13">
+        <v>34.034944237918218</v>
+      </c>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="25">
         <f>SUM(Q13:Q15)</f>
-        <v>159.61297071129709</v>
-      </c>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34.034944237918218</v>
+      </c>
+      <c r="R16" s="43"/>
+      <c r="S16" s="15">
+        <f>K16+G16+O16+Q16+I16+E16+M16</f>
+        <v>158.82973977695167</v>
+      </c>
+      <c r="T16" s="13">
+        <f>SUM(S13:S15)</f>
+        <v>158.8297397769517</v>
+      </c>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-    </row>
-    <row r="18" spans="1:27" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
+    </row>
+    <row r="18" spans="1:29" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="35" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35" t="s">
+      <c r="J18" s="54"/>
+      <c r="K18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="33" t="s">
+      <c r="L18" s="54"/>
+      <c r="M18" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="33" t="s">
+      <c r="P18" s="56"/>
+      <c r="Q18" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="56"/>
+      <c r="S18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="56"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="42"/>
+    </row>
+    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="47">
-        <f t="shared" ref="C20:C21" si="9">H20+J20+L20+N20+P20+F20</f>
-        <v>117</v>
-      </c>
-      <c r="D20" s="61">
+      <c r="C20" s="33">
+        <f t="shared" ref="C20:C21" si="9">H20+J20+L20+P20+R20+F20+N20</f>
+        <v>135</v>
+      </c>
+      <c r="D20" s="47">
         <v>89</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="17">
         <f t="shared" ref="G20" si="10">($D20/$C20)*H20</f>
-        <v>20.538461538461537</v>
-      </c>
-      <c r="H20" s="50">
+        <v>17.799999999999997</v>
+      </c>
+      <c r="H20" s="36">
         <v>27</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" ref="I20" si="11">($D20/$C20)*J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="36">
         <v>0</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" ref="K20:K21" si="12">($D20/$C20)*L20</f>
-        <v>22.820512820512818</v>
-      </c>
-      <c r="L20" s="50">
+        <v>19.777777777777775</v>
+      </c>
+      <c r="L20" s="36">
         <v>30</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" ref="M20:M21" si="13">($D20/$C20)*N20</f>
-        <v>22.820512820512818</v>
-      </c>
-      <c r="N20" s="50">
-        <v>30</v>
+        <v>11.866666666666665</v>
+      </c>
+      <c r="N20" s="36">
+        <v>18</v>
       </c>
       <c r="O20" s="17">
         <f t="shared" ref="O20:O21" si="14">($D20/$C20)*P20</f>
-        <v>22.820512820512818</v>
-      </c>
-      <c r="P20" s="50">
+        <v>19.777777777777775</v>
+      </c>
+      <c r="P20" s="36">
         <v>30</v>
       </c>
-      <c r="Q20" s="15">
-        <f t="shared" ref="Q20:Q21" si="15">K20+G20+M20+O20+I20+E20</f>
-        <v>88.999999999999986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="17">
+        <f t="shared" ref="Q20:Q21" si="15">($D20/$C20)*R20</f>
+        <v>19.777777777777775</v>
+      </c>
+      <c r="R20" s="36">
+        <v>30</v>
+      </c>
+      <c r="S20" s="15">
+        <f>K20+G20+O20+Q20+I20+E20+M20</f>
+        <v>88.999999999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="47">
+      <c r="C21" s="33">
         <f t="shared" si="9"/>
-        <v>121</v>
-      </c>
-      <c r="D21" s="61">
+        <v>133</v>
+      </c>
+      <c r="D21" s="47">
         <v>89</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="17">
         <f t="shared" ref="G21" si="16">($D21/$C21)*H21</f>
-        <v>13.239669421487603</v>
-      </c>
-      <c r="H21" s="50">
+        <v>12.045112781954888</v>
+      </c>
+      <c r="H21" s="36">
         <v>18</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" ref="I21" si="17">($D21/$C21)*J21</f>
-        <v>9.561983471074381</v>
-      </c>
-      <c r="J21" s="50">
+        <v>8.6992481203007515</v>
+      </c>
+      <c r="J21" s="36">
         <v>13</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" si="12"/>
-        <v>20.595041322314049</v>
-      </c>
-      <c r="L21" s="50">
+        <v>18.736842105263158</v>
+      </c>
+      <c r="L21" s="36">
         <v>28</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="13"/>
-        <v>22.801652892561982</v>
-      </c>
-      <c r="N21" s="50">
-        <v>31</v>
+        <v>8.0300751879699241</v>
+      </c>
+      <c r="N21" s="36">
+        <v>12</v>
       </c>
       <c r="O21" s="17">
         <f t="shared" si="14"/>
-        <v>22.801652892561982</v>
-      </c>
-      <c r="P21" s="50">
+        <v>20.744360902255639</v>
+      </c>
+      <c r="P21" s="36">
         <v>31</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="17">
         <f t="shared" si="15"/>
+        <v>20.744360902255639</v>
+      </c>
+      <c r="R21" s="36">
+        <v>31</v>
+      </c>
+      <c r="S21" s="15">
+        <f>K21+G21+O21+Q21+I21+E21+M21</f>
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="14"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="50"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="50"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P22" s="36"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>4</v>
       </c>
@@ -2059,266 +2155,299 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25">
         <f>SUM(G20:G22)</f>
-        <v>33.778130959949138</v>
-      </c>
-      <c r="H23" s="57"/>
+        <v>29.845112781954885</v>
+      </c>
+      <c r="H23" s="43"/>
       <c r="I23" s="25">
         <f>SUM(I20:I22)</f>
-        <v>9.561983471074381</v>
-      </c>
-      <c r="J23" s="57"/>
+        <v>8.6992481203007515</v>
+      </c>
+      <c r="J23" s="43"/>
       <c r="K23" s="25">
         <f>SUM(K20:K22)</f>
-        <v>43.415554142826863</v>
-      </c>
-      <c r="L23" s="57"/>
+        <v>38.514619883040936</v>
+      </c>
+      <c r="L23" s="43"/>
       <c r="M23" s="25">
         <f>SUM(M20:M22)</f>
-        <v>45.6221657130748</v>
-      </c>
-      <c r="N23" s="57"/>
+        <v>19.896741854636588</v>
+      </c>
+      <c r="N23" s="43"/>
       <c r="O23" s="25">
         <f>SUM(O20:O22)</f>
-        <v>45.6221657130748</v>
-      </c>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="15">
-        <f>K23+G23+M23+O23+I23+E23</f>
+        <v>40.522138680033414</v>
+      </c>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="25">
+        <f>SUM(Q20:Q22)</f>
+        <v>40.522138680033414</v>
+      </c>
+      <c r="R23" s="43"/>
+      <c r="S23" s="15">
+        <f>K23+G23+O23+Q23+I23+E23+M23</f>
         <v>177.99999999999997</v>
       </c>
-      <c r="R23" s="13">
-        <f>SUM(Q20:Q22)</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-    </row>
-    <row r="25" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
+      <c r="T23" s="13">
+        <f>SUM(S20:S22)</f>
+        <v>177.99999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+    </row>
+    <row r="25" spans="1:29" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="35" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="35" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="33" t="s">
+      <c r="L25" s="54"/>
+      <c r="M25" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="33" t="s">
+      <c r="P25" s="56"/>
+      <c r="Q25" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="56"/>
+      <c r="S25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="65"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="47">
-        <f>H27+J27+L27+N27+P27+F27</f>
-        <v>119</v>
-      </c>
-      <c r="D27" s="49">
+      <c r="C27" s="33">
+        <f t="shared" ref="C27:C28" si="18">H27+J27+L27+P27+R27+F27+N27</f>
+        <v>137</v>
+      </c>
+      <c r="D27" s="35">
         <v>40</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="17">
-        <f t="shared" ref="G27:I28" si="18">($D27/$C27)*H27</f>
-        <v>9.4117647058823533</v>
-      </c>
-      <c r="H27" s="50">
+        <f t="shared" ref="G27:I28" si="19">($D27/$C27)*H27</f>
+        <v>8.1751824817518237</v>
+      </c>
+      <c r="H27" s="36">
         <v>28</v>
       </c>
       <c r="I27" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="36">
         <v>0</v>
       </c>
       <c r="K27" s="17">
-        <f t="shared" ref="K27" si="19">($D27/$C27)*L27</f>
-        <v>10.420168067226891</v>
-      </c>
-      <c r="L27" s="50">
+        <f t="shared" ref="K27" si="20">($D27/$C27)*L27</f>
+        <v>9.0510948905109476</v>
+      </c>
+      <c r="L27" s="36">
         <v>31</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" ref="M27" si="20">($D27/$C27)*N27</f>
-        <v>10.08403361344538</v>
-      </c>
-      <c r="N27" s="50">
+        <f t="shared" ref="M27:M28" si="21">($D27/$C27)*N27</f>
+        <v>5.2554744525547443</v>
+      </c>
+      <c r="N27" s="36">
+        <v>18</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" ref="O27" si="22">($D27/$C27)*P27</f>
+        <v>8.7591240875912408</v>
+      </c>
+      <c r="P27" s="36">
         <v>30</v>
       </c>
-      <c r="O27" s="17">
-        <f t="shared" ref="O27" si="21">($D27/$C27)*P27</f>
-        <v>10.08403361344538</v>
-      </c>
-      <c r="P27" s="50">
+      <c r="Q27" s="17">
+        <f t="shared" ref="Q27" si="23">($D27/$C27)*R27</f>
+        <v>8.7591240875912408</v>
+      </c>
+      <c r="R27" s="36">
         <v>30</v>
       </c>
-      <c r="Q27" s="15">
-        <f t="shared" ref="Q27:Q28" si="22">K27+G27+M27+O27+I27+E27</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S27" s="15">
+        <f>K27+G27+O27+Q27+I27+E27+M27</f>
+        <v>39.999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="47">
-        <f>H28+J28+L28+N28+P28+F28</f>
-        <v>121</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="C28" s="33">
+        <f t="shared" si="18"/>
+        <v>133</v>
+      </c>
+      <c r="D28" s="35">
         <v>40</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="17">
-        <f t="shared" si="18"/>
-        <v>5.9504132231404956</v>
-      </c>
-      <c r="H28" s="50">
+        <f t="shared" si="19"/>
+        <v>5.4135338345864659</v>
+      </c>
+      <c r="H28" s="36">
         <v>18</v>
       </c>
       <c r="I28" s="17">
-        <f t="shared" si="18"/>
-        <v>4.2975206611570247</v>
-      </c>
-      <c r="J28" s="50">
+        <f t="shared" si="19"/>
+        <v>3.9097744360902253</v>
+      </c>
+      <c r="J28" s="36">
         <v>13</v>
       </c>
       <c r="K28" s="17">
-        <f t="shared" ref="K28" si="23">($D28/$C28)*L28</f>
-        <v>9.2561983471074392</v>
-      </c>
-      <c r="L28" s="50">
+        <f t="shared" ref="K28" si="24">($D28/$C28)*L28</f>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="L28" s="36">
         <v>28</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" ref="M28" si="24">($D28/$C28)*N28</f>
-        <v>10.24793388429752</v>
-      </c>
-      <c r="N28" s="50">
-        <v>31</v>
+        <f t="shared" si="21"/>
+        <v>3.6090225563909772</v>
+      </c>
+      <c r="N28" s="36">
+        <v>12</v>
       </c>
       <c r="O28" s="17">
         <f t="shared" ref="O28" si="25">($D28/$C28)*P28</f>
-        <v>10.24793388429752</v>
-      </c>
-      <c r="P28" s="50">
+        <v>9.3233082706766908</v>
+      </c>
+      <c r="P28" s="36">
         <v>31</v>
       </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="22"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="17">
+        <f t="shared" ref="Q28" si="26">($D28/$C28)*R28</f>
+        <v>9.3233082706766908</v>
+      </c>
+      <c r="R28" s="36">
+        <v>31</v>
+      </c>
+      <c r="S28" s="15">
+        <f>K28+G28+O28+Q28+I28+E28+M28</f>
+        <v>39.999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="14"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="50"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="50"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="50"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="20"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="15"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="36"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
@@ -2332,102 +2461,114 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25">
         <f>SUM(G27:G29)</f>
-        <v>15.362177929022849</v>
+        <v>13.588716316338289</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="25">
         <f>SUM(I27:I29)</f>
-        <v>4.2975206611570247</v>
+        <v>3.9097744360902253</v>
       </c>
       <c r="J30" s="27"/>
       <c r="K30" s="25">
         <f>SUM(K27:K29)</f>
-        <v>19.676366414334332</v>
+        <v>17.472147522089895</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="25">
         <f>SUM(M27:M29)</f>
-        <v>20.331967497742902</v>
+        <v>8.8644970089457225</v>
       </c>
       <c r="N30" s="27"/>
       <c r="O30" s="25">
         <f>SUM(O27:O29)</f>
-        <v>20.331967497742902</v>
-      </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="15">
-        <f>K30+G30+M30+O30+I30+E30</f>
-        <v>80</v>
-      </c>
-      <c r="R30" s="13">
+        <v>18.08243235826793</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="25">
         <f>SUM(Q27:Q29)</f>
-        <v>80</v>
-      </c>
-      <c r="AA30" s="7"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+        <v>18.08243235826793</v>
+      </c>
+      <c r="R30" s="32"/>
+      <c r="S30" s="15">
+        <f>K30+G30+O30+Q30+I30+E30+M30</f>
+        <v>79.999999999999986</v>
+      </c>
+      <c r="T30" s="13">
+        <f>SUM(S27:S29)</f>
+        <v>79.999999999999986</v>
+      </c>
+      <c r="AC30" s="7"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="AA31" s="7"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="AC31" s="7"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13">
         <f>(D9+D16+D23+D30)</f>
-        <v>1613.2569223242003</v>
+        <v>1608.5514916017692</v>
       </c>
       <c r="E32" s="13">
         <f>(E9+E16+E23+E30)</f>
-        <v>75.195230125523011</v>
+        <v>65.812253786827938</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13">
         <f>(G9+G16+G23+G30)</f>
-        <v>292.2063163435231</v>
-      </c>
-      <c r="H32" s="62"/>
+        <v>261.98770905136206</v>
+      </c>
+      <c r="H32" s="48"/>
       <c r="I32" s="13">
         <f>(I9+I16+I23+I30)</f>
-        <v>132.87313786251786</v>
-      </c>
-      <c r="J32" s="62"/>
+        <v>116.7393976326824</v>
+      </c>
+      <c r="J32" s="48"/>
       <c r="K32" s="13">
         <f>(K9+K16+K23+K30)</f>
-        <v>319.80705332188603</v>
-      </c>
-      <c r="L32" s="62"/>
+        <v>285.13650747368069</v>
+      </c>
+      <c r="L32" s="48"/>
       <c r="M32" s="13">
         <f>(M9+M16+M23+M30)</f>
-        <v>396.58759233537518</v>
-      </c>
-      <c r="N32" s="62"/>
+        <v>174.01149015238565</v>
+      </c>
+      <c r="N32" s="48"/>
       <c r="O32" s="13">
         <f>(O9+O16+O23+O30)</f>
-        <v>396.58759233537518</v>
-      </c>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="15">
-        <f>K32+G32+M32+O32+I32+E32</f>
-        <v>1613.2569223242001</v>
-      </c>
-      <c r="R32" s="10">
-        <f>SUM(R3:R30)</f>
-        <v>1613.2569223242003</v>
+        <v>352.43206675241527</v>
+      </c>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="13">
+        <f>(Q9+Q16+Q23+Q30)</f>
+        <v>352.43206675241527</v>
+      </c>
+      <c r="R32" s="48"/>
+      <c r="S32" s="15">
+        <f>K32+G32+O32+Q32+I32+E32</f>
+        <v>1434.5400014493837</v>
+      </c>
+      <c r="T32" s="10">
+        <f>SUM(T3:T30)</f>
+        <v>1608.5514916017692</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2494,32 +2635,14 @@
       <c r="C51" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="K25:L25"/>
+  <mergeCells count="44">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -2534,7 +2657,29 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
